--- a/results/DT/75Hz_3classes/res_hyperopt.xlsx
+++ b/results/DT/75Hz_3classes/res_hyperopt.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'max_depth': 29, 'max_features': 0.3692428439215031, 'min_samples_leaf': 0.005557477318449073, 'min_samples_split': 0.009029410652825327}</t>
+          <t>{'max_depth': 42, 'max_features': 0.3667464250077111, 'min_samples_leaf': 0.004367913506839027, 'min_samples_split': 0.008722557326925458}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -499,16 +499,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'max_depth': 30, 'max_features': 0.38374021776957623, 'min_samples_leaf': 0.0016865596066054332, 'min_samples_split': 0.003049374238236627}</t>
+          <t>{'max_depth': 61, 'max_features': 0.5838890553186136, 'min_samples_leaf': 0.0011965132694209618, 'min_samples_split': 0.0012888137785291075}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.121, 'mean_10_25': 0.072, 'max_10_25': 0.023, 'kurt_10_25': 0.077, 'skew_10_25': 0.017, 'percScore_10_25': 0.008, 'entropy_10_25': 0.019, 'score_at_perc_10_25': 0.005, 'coef_var_10_25': 0.025, 'coef_kstatvar_10_25': 0.032, 'min_10_25': 0.047, 'var_10_25': 0.011, 'mean_10_50': 0.032, 'max_10_50': 0.009, 'kurt_10_50': 0.023, 'skew_10_50': 0.015, 'percScore_10_50': 0.036, 'entropy_10_50': 0.03, 'score_at_perc_10_50': 0.005, 'coef_kstatvar_10_50': 0.02, 'min_10_50': 0.03, 'std_class_10_50': 0.01, 'var_10_50': 0.048, 'mean_25_75': 0.012, 'max_25_75': 0.043, 'kurt_25_75': 0.016, 'skew_25_75': 0.033, 'percScore_25_75': 0.037, 'entropy_25_75': 0.011, 'score_at_perc_25_75': 0.008, 'coef_kstatvar_25_75': 0.007, 'min_25_75': 0.087, 'std_class_25_75': 0.031}</t>
+          <t>{'mean_10_25': 0.086, 'max_10_25': 0.02, 'kurt_10_25': 0.01, 'skew_10_25': 0.025, 'percScore_10_25': 0.008, 'entropy_10_25': 0.01, 'score_at_perc_10_25': 0.021, 'coef_var_10_25': 0.01, 'coef_kstatvar_10_25': 0.022, 'min_10_25': 0.043, 'std_class_10_25': 0.1, 'var_10_25': 0.087, 'mean_10_50': 0.026, 'max_10_50': 0.016, 'kurt_10_50': 0.008, 'skew_10_50': 0.01, 'percScore_10_50': 0.035, 'coef_var_10_50': 0.051, 'min_10_50': 0.009, 'var_10_50': 0.031, 'mean_25_75': 0.013, 'max_25_75': 0.037, 'kurt_25_75': 0.022, 'skew_25_75': 0.039, 'percScore_25_75': 0.023, 'entropy_25_75': 0.022, 'score_at_perc_25_75': 0.017, 'coef_kstatvar_25_75': 0.071, 'min_25_75': 0.086, 'std_class_25_75': 0.043}</t>
         </is>
       </c>
     </row>
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'max_depth': 34, 'max_features': 0.33016720578864156, 'min_samples_leaf': 0.0010076162064036164, 'min_samples_split': 0.03803301334973631}</t>
+          <t>{'max_depth': 92, 'max_features': 0.44495408585994306, 'min_samples_leaf': 0.0011547395792117898, 'min_samples_split': 0.0038991051910826184}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.058, 'mean_10_25': 0.018, 'max_10_25': 0.028, 'kurt_10_25': 0.017, 'entropy_10_25': 0.052, 'score_at_perc_10_25': 0.041, 'coef_var_10_25': 0.034, 'min_10_25': 0.057, 'std_class_10_25': 0.016, 'var_10_25': 0.013, 'max_10_50': 0.047, 'kurt_10_50': 0.068, 'entropy_10_50': 0.016, 'coef_var_10_50': 0.02, 'coef_kstatvar_10_50': 0.014, 'std_class_10_50': 0.021, 'var_10_50': 0.011, 'mean_25_75': 0.025, 'max_25_75': 0.063, 'kurt_25_75': 0.044, 'skew_25_75': 0.025, 'score_at_perc_25_75': 0.05, 'min_25_75': 0.17, 'std_class_25_75': 0.091}</t>
+          <t>{'var_25_75': 0.013, 'mean_10_25': 0.081, 'max_10_25': 0.034, 'kurt_10_25': 0.031, 'skew_10_25': 0.012, 'percScore_10_25': 0.028, 'entropy_10_25': 0.017, 'score_at_perc_10_25': 0.017, 'coef_var_10_25': 0.015, 'coef_kstatvar_10_25': 0.03, 'std_class_10_25': 0.038, 'mean_10_50': 0.03, 'max_10_50': 0.017, 'kurt_10_50': 0.035, 'skew_10_50': 0.028, 'percScore_10_50': 0.015, 'entropy_10_50': 0.032, 'score_at_perc_10_50': 0.041, 'coef_var_10_50': 0.038, 'min_10_50': 0.032, 'std_class_10_50': 0.01, 'var_10_50': 0.067, 'max_25_75': 0.013, 'kurt_25_75': 0.045, 'skew_25_75': 0.024, 'percScore_25_75': 0.005, 'score_at_perc_25_75': 0.028, 'coef_kstatvar_25_75': 0.036, 'min_25_75': 0.159, 'std_class_25_75': 0.031}</t>
         </is>
       </c>
     </row>
@@ -548,19 +548,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.63</v>
+        <v>0.92</v>
       </c>
       <c r="D5" t="n">
         <v>0.54</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'max_depth': 79, 'max_features': 0.827231193384283, 'min_samples_leaf': 0.06691135954290194, 'min_samples_split': 0.025318839101361193}</t>
+          <t>{'max_depth': 89, 'max_features': 0.05717579787214445, 'min_samples_leaf': 0.0010083941203546396, 'min_samples_split': 0.010605624902636569}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.174, 'kurt_10_25': 0.071, 'min_10_25': 0.369, 'var_10_25': 0.121, 'kurt_10_50': 0.224, 'coef_var_10_50': 0.042}</t>
+          <t>{'var_25_75': 0.025, 'mean_10_25': 0.084, 'max_10_25': 0.029, 'kurt_10_25': 0.07, 'mad_10_25': 0.004, 'percScore_10_25': 0.003, 'entropy_10_25': 0.02, 'score_at_perc_10_25': 0.02, 'coef_var_10_25': 0.008, 'coef_kstatvar_10_25': 0.02, 'min_10_25': 0.025, 'std_class_10_25': 0.062, 'var_10_25': 0.049, 'mean_10_50': 0.052, 'max_10_50': 0.003, 'kurt_10_50': 0.022, 'skew_10_50': 0.025, 'percScore_10_50': 0.024, 'score_at_perc_10_50': 0.056, 'coef_var_10_50': 0.007, 'coef_kstatvar_10_50': 0.018, 'min_10_50': 0.054, 'std_class_10_50': 0.043, 'var_10_50': 0.019, 'mean_25_75': 0.038, 'max_25_75': 0.039, 'kurt_25_75': 0.019, 'entropy_25_75': 0.024, 'score_at_perc_25_75': 0.062, 'coef_var_25_75': 0.011, 'coef_kstatvar_25_75': 0.025, 'min_25_75': 0.037, 'std_class_25_75': 0.003}</t>
         </is>
       </c>
     </row>
@@ -577,16 +577,16 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'max_depth': 21, 'max_features': 0.5935961842234776, 'min_samples_leaf': 0.001325137872703639, 'min_samples_split': 0.0010543407760230947}</t>
+          <t>{'max_depth': 58, 'max_features': 0.16462161240486128, 'min_samples_leaf': 0.001317286980645685, 'min_samples_split': 0.002177938204995432}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.007, 'mean_10_25': 0.124, 'max_10_25': 0.017, 'skew_10_25': 0.018, 'percScore_10_25': 0.031, 'score_at_perc_10_25': 0.035, 'coef_var_10_25': 0.027, 'coef_kstatvar_10_25': 0.013, 'min_10_25': 0.037, 'std_class_10_25': 0.062, 'mean_10_50': 0.055, 'max_10_50': 0.016, 'kurt_10_50': 0.02, 'skew_10_50': 0.007, 'mad_10_50': 0.007, 'percScore_10_50': 0.017, 'score_at_perc_10_50': 0.069, 'min_10_50': 0.055, 'var_10_50': 0.041, 'mean_25_75': 0.003, 'max_25_75': 0.048, 'kurt_25_75': 0.034, 'skew_25_75': 0.035, 'entropy_25_75': 0.027, 'score_at_perc_25_75': 0.059, 'coef_kstatvar_25_75': 0.016, 'std_class_25_75': 0.119}</t>
+          <t>{'var_25_75': 0.046, 'mean_10_25': 0.029, 'max_10_25': 0.022, 'kurt_10_25': 0.014, 'percScore_10_25': 0.018, 'score_at_perc_10_25': 0.06, 'coef_var_10_25': 0.006, 'coef_kstatvar_10_25': 0.009, 'min_10_25': 0.037, 'std_class_10_25': 0.029, 'var_10_25': 0.017, 'max_10_50': 0.034, 'kurt_10_50': 0.064, 'skew_10_50': 0.045, 'mad_10_50': 0.007, 'percScore_10_50': 0.014, 'entropy_10_50': 0.009, 'score_at_perc_10_50': 0.006, 'coef_var_10_50': 0.013, 'coef_kstatvar_10_50': 0.033, 'min_10_50': 0.179, 'std_class_10_50': 0.027, 'var_10_50': 0.008, 'mean_25_75': 0.059, 'kurt_25_75': 0.017, 'skew_25_75': 0.007, 'entropy_25_75': 0.015, 'score_at_perc_25_75': 0.032, 'coef_kstatvar_25_75': 0.014, 'min_25_75': 0.078, 'std_class_25_75': 0.052}</t>
         </is>
       </c>
     </row>
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D7" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'max_depth': 10, 'max_features': 0.4819239549893103, 'min_samples_leaf': 0.001044037081929681, 'min_samples_split': 0.0011741041846537444}</t>
+          <t>{'max_depth': 72, 'max_features': 0.31578547346303143, 'min_samples_leaf': 0.0014202289259651153, 'min_samples_split': 0.010640051890032351}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.026, 'mean_10_25': 0.099, 'max_10_25': 0.044, 'kurt_10_25': 0.045, 'entropy_10_25': 0.015, 'score_at_perc_10_25': 0.058, 'coef_kstatvar_10_25': 0.025, 'min_10_25': 0.069, 'std_class_10_25': 0.008, 'var_10_25': 0.028, 'mean_10_50': 0.015, 'max_10_50': 0.068, 'kurt_10_50': 0.01, 'skew_10_50': 0.036, 'percScore_10_50': 0.005, 'entropy_10_50': 0.036, 'coef_var_10_50': 0.024, 'coef_kstatvar_10_50': 0.013, 'min_10_50': 0.015, 'var_10_50': 0.082, 'mean_25_75': 0.072, 'max_25_75': 0.033, 'kurt_25_75': 0.007, 'skew_25_75': 0.015, 'percScore_25_75': 0.011, 'score_at_perc_25_75': 0.02, 'coef_var_25_75': 0.049, 'coef_kstatvar_25_75': 0.009, 'min_25_75': 0.039, 'std_class_25_75': 0.022}</t>
+          <t>{'var_25_75': 0.05, 'mean_10_25': 0.143, 'max_10_25': 0.019, 'kurt_10_25': 0.065, 'skew_10_25': 0.017, 'percScore_10_25': 0.049, 'entropy_10_25': 0.009, 'score_at_perc_10_25': 0.03, 'coef_var_10_25': 0.016, 'coef_kstatvar_10_25': 0.01, 'min_10_25': 0.058, 'var_10_25': 0.008, 'max_10_50': 0.014, 'kurt_10_50': 0.094, 'skew_10_50': 0.009, 'entropy_10_50': 0.024, 'std_class_10_50': 0.05, 'mean_25_75': 0.049, 'max_25_75': 0.009, 'kurt_25_75': 0.06, 'skew_25_75': 0.039, 'percScore_25_75': 0.017, 'score_at_perc_25_75': 0.061, 'coef_var_25_75': 0.051, 'coef_kstatvar_25_75': 0.011, 'min_25_75': 0.023, 'std_class_25_75': 0.015}</t>
         </is>
       </c>
     </row>
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="D8" t="n">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'max_depth': 6, 'max_features': 0.25477968967118453, 'min_samples_leaf': 0.0014250486614355833, 'min_samples_split': 0.10873156826282919}</t>
+          <t>{'max_depth': 93, 'max_features': 0.2563174169571622, 'min_samples_leaf': 0.028011557257985126, 'min_samples_split': 0.0013835942446349288}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.051, 'mean_10_25': 0.053, 'coef_var_10_25': 0.038, 'min_10_25': 0.204, 'var_10_25': 0.059, 'min_10_50': 0.054, 'std_class_10_50': 0.167, 'max_25_75': 0.081, 'min_25_75': 0.169, 'std_class_25_75': 0.123}</t>
+          <t>{'var_25_75': 0.075, 'max_10_25': 0.046, 'entropy_10_25': 0.033, 'coef_var_10_25': 0.022, 'min_10_25': 0.044, 'std_class_10_25': 0.042, 'var_10_25': 0.129, 'mean_10_50': 0.013, 'max_10_50': 0.087, 'coef_var_10_50': 0.062, 'min_10_50': 0.118, 'var_10_50': 0.054, 'max_25_75': 0.024, 'kurt_25_75': 0.007, 'entropy_25_75': 0.019, 'min_25_75': 0.149, 'std_class_25_75': 0.075}</t>
         </is>
       </c>
     </row>
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'max_depth': 31, 'max_features': 0.40327414096413167, 'min_samples_leaf': 0.01623156180411594, 'min_samples_split': 0.03680683400656121}</t>
+          <t>{'max_depth': 89, 'max_features': 0.6065538968071573, 'min_samples_leaf': 0.007911684484519711, 'min_samples_split': 0.005387350341064849}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.073, 'mean_10_25': 0.099, 'max_10_25': 0.063, 'kurt_10_25': 0.001, 'percScore_10_25': 0.037, 'score_at_perc_10_25': 0.01, 'coef_var_10_25': 0.076, 'coef_kstatvar_10_25': 0.035, 'min_10_25': 0.072, 'var_10_25': 0.036, 'max_10_50': 0.033, 'kurt_10_50': 0.093, 'skew_10_50': 0.02, 'score_at_perc_10_50': 0.017, 'coef_var_10_50': 0.001, 'min_10_50': 0.012, 'max_25_75': 0.049, 'kurt_25_75': 0.013, 'skew_25_75': 0.025, 'percScore_25_75': 0.045, 'score_at_perc_25_75': 0.001, 'coef_var_25_75': 0.027, 'min_25_75': 0.014, 'std_class_25_75': 0.147}</t>
+          <t>{'mean_10_25': 0.104, 'max_10_25': 0.025, 'kurt_10_25': 0.038, 'skew_10_25': 0.002, 'percScore_10_25': 0.069, 'entropy_10_25': 0.022, 'score_at_perc_10_25': 0.005, 'coef_var_10_25': 0.043, 'coef_kstatvar_10_25': 0.002, 'min_10_25': 0.048, 'std_class_10_25': 0.085, 'var_10_25': 0.02, 'mean_10_50': 0.011, 'max_10_50': 0.072, 'kurt_10_50': 0.014, 'skew_10_50': 0.005, 'percScore_10_50': 0.038, 'entropy_10_50': 0.031, 'min_10_50': 0.021, 'std_class_10_50': 0.061, 'var_10_50': 0.015, 'mean_25_75': 0.031, 'max_25_75': 0.053, 'kurt_25_75': 0.01, 'skew_25_75': 0.02, 'percScore_25_75': 0.021, 'entropy_25_75': 0.039, 'coef_kstatvar_25_75': 0.019, 'min_25_75': 0.002, 'std_class_25_75': 0.074}</t>
         </is>
       </c>
     </row>
@@ -678,19 +678,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'max_depth': 95, 'max_features': 0.7375733475685666, 'min_samples_leaf': 0.0011371756022827972, 'min_samples_split': 0.009042638425313939}</t>
+          <t>{'max_depth': 68, 'max_features': 0.13349363392475247, 'min_samples_leaf': 0.0011994170169746495, 'min_samples_split': 0.017802419221044564}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.095, 'max_10_25': 0.015, 'skew_10_25': 0.025, 'percScore_10_25': 0.021, 'entropy_10_25': 0.036, 'score_at_perc_10_25': 0.01, 'coef_var_10_25': 0.043, 'coef_kstatvar_10_25': 0.031, 'min_10_25': 0.059, 'std_class_10_25': 0.01, 'mean_10_50': 0.044, 'max_10_50': 0.006, 'kurt_10_50': 0.058, 'skew_10_50': 0.012, 'percScore_10_50': 0.009, 'entropy_10_50': 0.016, 'score_at_perc_10_50': 0.018, 'coef_var_10_50': 0.022, 'min_10_50': 0.064, 'std_class_10_50': 0.019, 'mean_25_75': 0.066, 'max_25_75': 0.048, 'kurt_25_75': 0.022, 'skew_25_75': 0.017, 'percScore_25_75': 0.043, 'entropy_25_75': 0.009, 'score_at_perc_25_75': 0.015, 'coef_var_25_75': 0.049, 'coef_kstatvar_25_75': 0.014, 'min_25_75': 0.042, 'std_class_25_75': 0.063}</t>
+          <t>{'var_25_75': 0.077, 'mean_10_25': 0.06, 'max_10_25': 0.029, 'kurt_10_25': 0.066, 'skew_10_25': 0.007, 'percScore_10_25': 0.032, 'score_at_perc_10_25': 0.024, 'min_10_25': 0.034, 'std_class_10_25': 0.087, 'var_10_25': 0.045, 'mean_10_50': 0.057, 'max_10_50': 0.034, 'kurt_10_50': 0.067, 'skew_10_50': 0.019, 'entropy_10_50': 0.02, 'score_at_perc_10_50': 0.019, 'coef_var_10_50': 0.024, 'min_10_50': 0.061, 'var_10_50': 0.013, 'max_25_75': 0.05, 'kurt_25_75': 0.011, 'skew_25_75': 0.013, 'percScore_25_75': 0.033, 'coef_kstatvar_25_75': 0.008, 'min_25_75': 0.082, 'std_class_25_75': 0.03}</t>
         </is>
       </c>
     </row>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="D11" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'max_depth': 17, 'max_features': 0.7948289579838855, 'min_samples_leaf': 0.0018053393677431463, 'min_samples_split': 0.002260639298109968}</t>
+          <t>{'max_depth': 79, 'max_features': 0.9369113223638063, 'min_samples_leaf': 0.027454218392911543, 'min_samples_split': 0.17372313715550958}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.026, 'mean_10_25': 0.041, 'max_10_25': 0.039, 'kurt_10_25': 0.024, 'skew_10_25': 0.02, 'percScore_10_25': 0.011, 'score_at_perc_10_25': 0.029, 'coef_var_10_25': 0.008, 'coef_kstatvar_10_25': 0.047, 'min_10_25': 0.025, 'std_class_10_25': 0.041, 'var_10_25': 0.015, 'mean_10_50': 0.024, 'max_10_50': 0.044, 'kurt_10_50': 0.052, 'skew_10_50': 0.057, 'percScore_10_50': 0.051, 'entropy_10_50': 0.011, 'score_at_perc_10_50': 0.063, 'coef_var_10_50': 0.056, 'coef_kstatvar_10_50': 0.011, 'std_class_10_50': 0.035, 'var_10_50': 0.072, 'mean_25_75': 0.033, 'max_25_75': 0.033, 'kurt_25_75': 0.042, 'skew_25_75': 0.008, 'percScore_25_75': 0.016, 'entropy_25_75': 0.013, 'score_at_perc_25_75': 0.031, 'coef_kstatvar_25_75': 0.006, 'std_class_25_75': 0.016}</t>
+          <t>{'mean_10_25': 0.099, 'kurt_10_25': 0.078, 'score_at_perc_10_25': 0.074, 'coef_kstatvar_10_25': 0.05, 'var_10_25': 0.089, 'max_10_50': 0.18, 'score_at_perc_10_50': 0.108, 'var_10_50': 0.147, 'mean_25_75': 0.075, 'score_at_perc_25_75': 0.1}</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'max_depth': 82, 'max_features': 0.5254145950832039, 'min_samples_leaf': 0.0013481917292004135, 'min_samples_split': 0.002341015576542915}</t>
+          <t>{'max_depth': 23, 'max_features': 0.5336390246446807, 'min_samples_leaf': 0.0015000013294649253, 'min_samples_split': 0.001088233935855519}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -756,19 +756,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'max_depth': 66, 'max_features': 0.6762600098861206, 'min_samples_leaf': 0.001478279090795058, 'min_samples_split': 0.010013787679478393}</t>
+          <t>{'max_depth': 51, 'max_features': 0.6891368756399977, 'min_samples_leaf': 0.0015006710787511032, 'min_samples_split': 0.0013606625128009843}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.034, 'mean_10_25': 0.14, 'max_10_25': 0.043, 'kurt_10_25': 0.015, 'skew_10_25': 0.003, 'percScore_10_25': 0.011, 'entropy_10_25': 0.021, 'score_at_perc_10_25': 0.032, 'coef_var_10_25': 0.068, 'coef_kstatvar_10_25': 0.025, 'min_10_25': 0.04, 'std_class_10_25': 0.056, 'max_10_50': 0.011, 'kurt_10_50': 0.032, 'skew_10_50': 0.016, 'percScore_10_50': 0.031, 'score_at_perc_10_50': 0.049, 'coef_var_10_50': 0.039, 'coef_kstatvar_10_50': 0.018, 'min_10_50': 0.022, 'std_class_10_50': 0.016, 'var_10_50': 0.015, 'mean_25_75': 0.013, 'max_25_75': 0.034, 'kurt_25_75': 0.007, 'skew_25_75': 0.004, 'percScore_25_75': 0.007, 'entropy_25_75': 0.011, 'coef_kstatvar_25_75': 0.008, 'min_25_75': 0.079, 'std_class_25_75': 0.102}</t>
+          <t>{'var_25_75': 0.004, 'mean_10_25': 0.131, 'max_10_25': 0.021, 'skew_10_25': 0.008, 'percScore_10_25': 0.007, 'score_at_perc_10_25': 0.029, 'coef_var_10_25': 0.108, 'coef_kstatvar_10_25': 0.011, 'min_10_25': 0.031, 'std_class_10_25': 0.023, 'var_10_25': 0.053, 'mean_10_50': 0.021, 'max_10_50': 0.01, 'kurt_10_50': 0.007, 'skew_10_50': 0.015, 'entropy_10_50': 0.013, 'score_at_perc_10_50': 0.059, 'coef_var_10_50': 0.012, 'coef_kstatvar_10_50': 0.031, 'min_10_50': 0.017, 'std_class_10_50': 0.012, 'var_10_50': 0.016, 'mean_25_75': 0.043, 'max_25_75': 0.065, 'kurt_25_75': 0.007, 'skew_25_75': 0.012, 'percScore_25_75': 0.029, 'entropy_25_75': 0.008, 'score_at_perc_25_75': 0.007, 'coef_kstatvar_25_75': 0.032, 'min_25_75': 0.065, 'std_class_25_75': 0.09}</t>
         </is>
       </c>
     </row>
@@ -789,12 +789,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'max_depth': 89, 'max_features': 0.5156439674257937, 'min_samples_leaf': 0.001060448875431743, 'min_samples_split': 0.0012482857013080412}</t>
+          <t>{'max_depth': 68, 'max_features': 0.2883404675560206, 'min_samples_leaf': 0.001459731575227611, 'min_samples_split': 0.0013635975029920588}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.032, 'mean_10_25': 0.085, 'max_10_25': 0.013, 'kurt_10_25': 0.03, 'skew_10_25': 0.006, 'percScore_10_25': 0.077, 'entropy_10_25': 0.019, 'score_at_perc_10_25': 0.007, 'coef_var_10_25': 0.071, 'coef_kstatvar_10_25': 0.028, 'min_10_25': 0.027, 'std_class_10_25': 0.005, 'var_10_25': 0.039, 'mean_10_50': 0.031, 'max_10_50': 0.014, 'kurt_10_50': 0.01, 'skew_10_50': 0.006, 'mad_10_50': 0.009, 'entropy_10_50': 0.013, 'coef_var_10_50': 0.01, 'coef_kstatvar_10_50': 0.042, 'min_10_50': 0.047, 'var_10_50': 0.02, 'mean_25_75': 0.011, 'max_25_75': 0.05, 'kurt_25_75': 0.029, 'skew_25_75': 0.077, 'percScore_25_75': 0.007, 'entropy_25_75': 0.041, 'coef_kstatvar_25_75': 0.034, 'min_25_75': 0.081, 'std_class_25_75': 0.03}</t>
+          <t>{'var_25_75': 0.02, 'mean_10_25': 0.029, 'max_10_25': 0.027, 'kurt_10_25': 0.087, 'skew_10_25': 0.028, 'entropy_10_25': 0.038, 'score_at_perc_10_25': 0.003, 'coef_var_10_25': 0.009, 'coef_kstatvar_10_25': 0.005, 'min_10_25': 0.02, 'std_class_10_25': 0.024, 'var_10_25': 0.026, 'mean_10_50': 0.019, 'max_10_50': 0.025, 'kurt_10_50': 0.045, 'skew_10_50': 0.047, 'mad_10_50': 0.011, 'percScore_10_50': 0.041, 'entropy_10_50': 0.012, 'score_at_perc_10_50': 0.073, 'coef_var_10_50': 0.024, 'coef_kstatvar_10_50': 0.007, 'min_10_50': 0.064, 'std_class_10_50': 0.04, 'var_10_50': 0.023, 'mean_25_75': 0.033, 'max_25_75': 0.041, 'kurt_25_75': 0.009, 'percScore_25_75': 0.017, 'entropy_25_75': 0.027, 'score_at_perc_25_75': 0.007, 'coef_var_25_75': 0.005, 'coef_kstatvar_25_75': 0.011, 'min_25_75': 0.072, 'std_class_25_75': 0.03}</t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="D15" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'max_depth': 39, 'max_features': 0.24747337511275438, 'min_samples_leaf': 0.0018771490040278408, 'min_samples_split': 0.011464732164923596}</t>
+          <t>{'max_depth': 11, 'max_features': 0.5752809600965818, 'min_samples_leaf': 0.00966830879155898, 'min_samples_split': 0.03892793577376695}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.04, 'mean_10_25': 0.034, 'max_10_25': 0.043, 'kurt_10_25': 0.077, 'skew_10_25': 0.016, 'percScore_10_25': 0.021, 'entropy_10_25': 0.032, 'score_at_perc_10_25': 0.061, 'coef_var_10_25': 0.017, 'min_10_25': 0.059, 'std_class_10_25': 0.052, 'var_10_25': 0.007, 'mean_10_50': 0.002, 'kurt_10_50': 0.054, 'skew_10_50': 0.041, 'percScore_10_50': 0.014, 'score_at_perc_10_50': 0.062, 'coef_var_10_50': 0.035, 'coef_kstatvar_10_50': 0.029, 'min_10_50': 0.015, 'std_class_10_50': 0.012, 'var_10_50': 0.042, 'mean_25_75': 0.019, 'max_25_75': 0.014, 'kurt_25_75': 0.005, 'skew_25_75': 0.007, 'percScore_25_75': 0.006, 'entropy_25_75': 0.03, 'score_at_perc_25_75': 0.006, 'coef_var_25_75': 0.024, 'coef_kstatvar_25_75': 0.007, 'min_25_75': 0.089, 'std_class_25_75': 0.028}</t>
+          <t>{'var_25_75': 0.013, 'mean_10_25': 0.129, 'max_10_25': 0.057, 'kurt_10_25': 0.087, 'skew_10_25': 0.016, 'percScore_10_25': 0.009, 'score_at_perc_10_25': 0.04, 'min_10_25': 0.016, 'std_class_10_25': 0.057, 'mean_10_50': 0.049, 'max_10_50': 0.003, 'kurt_10_50': 0.088, 'skew_10_50': 0.006, 'percScore_10_50': 0.009, 'coef_var_10_50': 0.035, 'coef_kstatvar_10_50': 0.033, 'min_10_50': 0.1, 'mean_25_75': 0.06, 'max_25_75': 0.021, 'kurt_25_75': 0.003, 'percScore_25_75': 0.002, 'score_at_perc_25_75': 0.022, 'coef_kstatvar_25_75': 0.004, 'std_class_25_75': 0.142}</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'max_depth': 58, 'max_features': 0.6849493981781813, 'min_samples_leaf': 0.0012687626589218844, 'min_samples_split': 0.011265464855554422}</t>
+          <t>{'max_depth': 19, 'max_features': 0.6777750266811025, 'min_samples_leaf': 0.001302090599524913, 'min_samples_split': 0.011447285046449287}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/results/DT/75Hz_3classes/res_hyperopt.xlsx
+++ b/results/DT/75Hz_3classes/res_hyperopt.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>load</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -470,19 +470,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'max_depth': 42, 'max_features': 0.3667464250077111, 'min_samples_leaf': 0.004367913506839027, 'min_samples_split': 0.008722557326925458}</t>
+          <t>{'max_depth': 43, 'max_features': 0.36468195070229775, 'min_samples_leaf': 0.0011948521901405636, 'min_samples_split': 0.009008324850127362}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.039, 'mean_10_25': 0.125, 'max_10_25': 0.044, 'kurt_10_25': 0.02, 'percScore_10_25': 0.045, 'entropy_10_25': 0.025, 'score_at_perc_10_25': 0.026, 'coef_var_10_25': 0.08, 'coef_kstatvar_10_25': 0.008, 'min_10_25': 0.003, 'std_class_10_25': 0.066, 'var_10_25': 0.01, 'mean_10_50': 0.019, 'max_10_50': 0.003, 'kurt_10_50': 0.015, 'skew_10_50': 0.047, 'percScore_10_50': 0.01, 'score_at_perc_10_50': 0.042, 'coef_var_10_50': 0.025, 'coef_kstatvar_10_50': 0.008, 'min_10_50': 0.056, 'std_class_10_50': 0.042, 'mean_25_75': 0.035, 'max_25_75': 0.026, 'kurt_25_75': 0.01, 'skew_25_75': 0.016, 'entropy_25_75': 0.021, 'score_at_perc_25_75': 0.03, 'coef_var_25_75': 0.051, 'coef_kstatvar_25_75': 0.017, 'min_25_75': 0.01, 'std_class_25_75': 0.026}</t>
+          <t>{'mean_10_25': 0.166, 'mean_25_75': 0.075, 'min_10_25': 0.065, 'skew_10_50': 0.064, 'coef_var_10_50': 0.056, 'mean_10_50': 0.05, 'min_10_50': 0.05, 'coef_var_25_75': 0.047, 'max_10_25': 0.041, 'score_at_perc_10_50': 0.037, 'kurt_10_25': 0.036, 'percScore_25_75': 0.035, 'skew_10_25': 0.032, 'coef_kstatvar_10_50': 0.027, 'min_25_75': 0.027, 'std_class_10_25': 0.024, 'var_10_50': 0.023, 'max_10_50': 0.022, 'skew_25_75': 0.017, 'entropy_25_75': 0.016, 'kurt_10_50': 0.014, 'var_10_25': 0.011, 'max_25_75': 0.011, 'entropy_10_25': 0.01, 'coef_var_10_25': 0.008, 'mad_10_25': 0.007, 'std_class_10_50': 0.007, 'score_at_perc_25_75': 0.007, 'percScore_10_25': 0.006, 'coef_kstatvar_10_25': 0.005, 'mad_10_50': 0.003}</t>
         </is>
       </c>
     </row>
@@ -499,16 +499,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'max_depth': 61, 'max_features': 0.5838890553186136, 'min_samples_leaf': 0.0011965132694209618, 'min_samples_split': 0.0012888137785291075}</t>
+          <t>{'max_depth': 34, 'max_features': 0.36169162394427157, 'min_samples_leaf': 0.0010306212107728764, 'min_samples_split': 0.0017272723795674905}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.086, 'max_10_25': 0.02, 'kurt_10_25': 0.01, 'skew_10_25': 0.025, 'percScore_10_25': 0.008, 'entropy_10_25': 0.01, 'score_at_perc_10_25': 0.021, 'coef_var_10_25': 0.01, 'coef_kstatvar_10_25': 0.022, 'min_10_25': 0.043, 'std_class_10_25': 0.1, 'var_10_25': 0.087, 'mean_10_50': 0.026, 'max_10_50': 0.016, 'kurt_10_50': 0.008, 'skew_10_50': 0.01, 'percScore_10_50': 0.035, 'coef_var_10_50': 0.051, 'min_10_50': 0.009, 'var_10_50': 0.031, 'mean_25_75': 0.013, 'max_25_75': 0.037, 'kurt_25_75': 0.022, 'skew_25_75': 0.039, 'percScore_25_75': 0.023, 'entropy_25_75': 0.022, 'score_at_perc_25_75': 0.017, 'coef_kstatvar_25_75': 0.071, 'min_25_75': 0.086, 'std_class_25_75': 0.043}</t>
+          <t>{'var_25_75': 0.121, 'min_25_75': 0.087, 'kurt_10_25': 0.077, 'mean_10_25': 0.072, 'var_10_50': 0.048, 'min_10_25': 0.047, 'max_25_75': 0.043, 'percScore_25_75': 0.037, 'percScore_10_50': 0.036, 'skew_25_75': 0.033, 'coef_kstatvar_10_25': 0.032, 'mean_10_50': 0.032, 'std_class_25_75': 0.031, 'entropy_10_50': 0.03, 'min_10_50': 0.03, 'coef_var_10_25': 0.025, 'max_10_25': 0.023, 'kurt_10_50': 0.023, 'coef_kstatvar_10_50': 0.02, 'entropy_10_25': 0.019, 'skew_10_25': 0.017, 'kurt_25_75': 0.016, 'skew_10_50': 0.015, 'mean_25_75': 0.012, 'var_10_25': 0.011, 'entropy_25_75': 0.011, 'std_class_10_50': 0.01, 'max_10_50': 0.009, 'percScore_10_25': 0.008, 'score_at_perc_25_75': 0.008, 'coef_kstatvar_25_75': 0.007, 'score_at_perc_10_25': 0.005, 'score_at_perc_10_50': 0.005}</t>
         </is>
       </c>
     </row>
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D4" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'max_depth': 92, 'max_features': 0.44495408585994306, 'min_samples_leaf': 0.0011547395792117898, 'min_samples_split': 0.0038991051910826184}</t>
+          <t>{'max_depth': 27, 'max_features': 0.09389058900456171, 'min_samples_leaf': 0.0017153068544988976, 'min_samples_split': 0.01000339626931955}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.013, 'mean_10_25': 0.081, 'max_10_25': 0.034, 'kurt_10_25': 0.031, 'skew_10_25': 0.012, 'percScore_10_25': 0.028, 'entropy_10_25': 0.017, 'score_at_perc_10_25': 0.017, 'coef_var_10_25': 0.015, 'coef_kstatvar_10_25': 0.03, 'std_class_10_25': 0.038, 'mean_10_50': 0.03, 'max_10_50': 0.017, 'kurt_10_50': 0.035, 'skew_10_50': 0.028, 'percScore_10_50': 0.015, 'entropy_10_50': 0.032, 'score_at_perc_10_50': 0.041, 'coef_var_10_50': 0.038, 'min_10_50': 0.032, 'std_class_10_50': 0.01, 'var_10_50': 0.067, 'max_25_75': 0.013, 'kurt_25_75': 0.045, 'skew_25_75': 0.024, 'percScore_25_75': 0.005, 'score_at_perc_25_75': 0.028, 'coef_kstatvar_25_75': 0.036, 'min_25_75': 0.159, 'std_class_25_75': 0.031}</t>
+          <t>{'max_10_50': 0.087, 'score_at_perc_25_75': 0.079, 'min_25_75': 0.069, 'percScore_10_25': 0.049, 'var_10_50': 0.049, 'coef_kstatvar_25_75': 0.048, 'min_10_25': 0.047, 'std_class_25_75': 0.047, 'kurt_10_50': 0.046, 'max_10_25': 0.038, 'skew_10_25': 0.037, 'min_10_50': 0.036, 'coef_kstatvar_10_50': 0.035, 'std_class_10_50': 0.033, 'percScore_10_50': 0.029, 'coef_var_10_50': 0.029, 'coef_var_25_75': 0.028, 'kurt_10_25': 0.027, 'entropy_10_25': 0.025, 'coef_kstatvar_10_25': 0.025, 'coef_var_10_25': 0.022, 'mean_10_50': 0.019, 'max_25_75': 0.019, 'mean_25_75': 0.017, 'score_at_perc_10_25': 0.016, 'std_class_10_25': 0.013, 'var_25_75': 0.009, 'kurt_25_75': 0.008, 'skew_10_50': 0.007, 'skew_25_75': 0.005, 'percScore_25_75': 0.005}</t>
         </is>
       </c>
     </row>
@@ -548,19 +548,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.92</v>
+        <v>0.54</v>
       </c>
       <c r="D5" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'max_depth': 89, 'max_features': 0.05717579787214445, 'min_samples_leaf': 0.0010083941203546396, 'min_samples_split': 0.010605624902636569}</t>
+          <t>{'max_depth': 74, 'max_features': 0.17915576559970642, 'min_samples_leaf': 0.0674613136167936, 'min_samples_split': 0.29774362071383154}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.025, 'mean_10_25': 0.084, 'max_10_25': 0.029, 'kurt_10_25': 0.07, 'mad_10_25': 0.004, 'percScore_10_25': 0.003, 'entropy_10_25': 0.02, 'score_at_perc_10_25': 0.02, 'coef_var_10_25': 0.008, 'coef_kstatvar_10_25': 0.02, 'min_10_25': 0.025, 'std_class_10_25': 0.062, 'var_10_25': 0.049, 'mean_10_50': 0.052, 'max_10_50': 0.003, 'kurt_10_50': 0.022, 'skew_10_50': 0.025, 'percScore_10_50': 0.024, 'score_at_perc_10_50': 0.056, 'coef_var_10_50': 0.007, 'coef_kstatvar_10_50': 0.018, 'min_10_50': 0.054, 'std_class_10_50': 0.043, 'var_10_50': 0.019, 'mean_25_75': 0.038, 'max_25_75': 0.039, 'kurt_25_75': 0.019, 'entropy_25_75': 0.024, 'score_at_perc_25_75': 0.062, 'coef_var_25_75': 0.011, 'coef_kstatvar_25_75': 0.025, 'min_25_75': 0.037, 'std_class_25_75': 0.003}</t>
+          <t>{'min_25_75': 0.373, 'var_25_75': 0.284, 'max_10_25': 0.179, 'max_10_50': 0.165}</t>
         </is>
       </c>
     </row>
@@ -577,16 +577,16 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'max_depth': 58, 'max_features': 0.16462161240486128, 'min_samples_leaf': 0.001317286980645685, 'min_samples_split': 0.002177938204995432}</t>
+          <t>{'max_depth': 35, 'max_features': 0.025832073924507704, 'min_samples_leaf': 0.0016712681925897567, 'min_samples_split': 0.001099262056006859}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.046, 'mean_10_25': 0.029, 'max_10_25': 0.022, 'kurt_10_25': 0.014, 'percScore_10_25': 0.018, 'score_at_perc_10_25': 0.06, 'coef_var_10_25': 0.006, 'coef_kstatvar_10_25': 0.009, 'min_10_25': 0.037, 'std_class_10_25': 0.029, 'var_10_25': 0.017, 'max_10_50': 0.034, 'kurt_10_50': 0.064, 'skew_10_50': 0.045, 'mad_10_50': 0.007, 'percScore_10_50': 0.014, 'entropy_10_50': 0.009, 'score_at_perc_10_50': 0.006, 'coef_var_10_50': 0.013, 'coef_kstatvar_10_50': 0.033, 'min_10_50': 0.179, 'std_class_10_50': 0.027, 'var_10_50': 0.008, 'mean_25_75': 0.059, 'kurt_25_75': 0.017, 'skew_25_75': 0.007, 'entropy_25_75': 0.015, 'score_at_perc_25_75': 0.032, 'coef_kstatvar_25_75': 0.014, 'min_25_75': 0.078, 'std_class_25_75': 0.052}</t>
+          <t>{'coef_var_10_50': 0.099, 'score_at_perc_25_75': 0.091, 'entropy_25_75': 0.057, 'max_10_25': 0.05, 'var_10_50': 0.042, 'skew_10_25': 0.041, 'coef_var_10_25': 0.041, 'var_10_25': 0.039, 'percScore_10_25': 0.037, 'score_at_perc_10_50': 0.035, 'min_10_50': 0.031, 'score_at_perc_10_25': 0.03, 'percScore_25_75': 0.029, 'kurt_10_25': 0.027, 'coef_kstatvar_25_75': 0.027, 'mean_25_75': 0.024, 'mean_10_50': 0.023, 'min_25_75': 0.023, 'mad_10_50': 0.021, 'max_25_75': 0.021, 'var_25_75': 0.02, 'std_class_10_25': 0.02, 'std_class_10_50': 0.02, 'mean_10_25': 0.019, 'coef_kstatvar_10_50': 0.019, 'skew_25_75': 0.017, 'coef_var_25_75': 0.017, 'entropy_10_25': 0.014, 'skew_10_50': 0.014, 'min_10_25': 0.01, 'entropy_10_50': 0.01, 'kurt_25_75': 0.009, 'coef_kstatvar_10_25': 0.008, 'std_class_25_75': 0.007, 'percScore_10_50': 0.004, 'mad_10_25': 0.002, 'max_10_50': 0.001}</t>
         </is>
       </c>
     </row>
@@ -607,12 +607,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'max_depth': 72, 'max_features': 0.31578547346303143, 'min_samples_leaf': 0.0014202289259651153, 'min_samples_split': 0.010640051890032351}</t>
+          <t>{'max_depth': 98, 'max_features': 0.3155956991946548, 'min_samples_leaf': 0.0013446493113066218, 'min_samples_split': 0.010973894904740662}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.05, 'mean_10_25': 0.143, 'max_10_25': 0.019, 'kurt_10_25': 0.065, 'skew_10_25': 0.017, 'percScore_10_25': 0.049, 'entropy_10_25': 0.009, 'score_at_perc_10_25': 0.03, 'coef_var_10_25': 0.016, 'coef_kstatvar_10_25': 0.01, 'min_10_25': 0.058, 'var_10_25': 0.008, 'max_10_50': 0.014, 'kurt_10_50': 0.094, 'skew_10_50': 0.009, 'entropy_10_50': 0.024, 'std_class_10_50': 0.05, 'mean_25_75': 0.049, 'max_25_75': 0.009, 'kurt_25_75': 0.06, 'skew_25_75': 0.039, 'percScore_25_75': 0.017, 'score_at_perc_25_75': 0.061, 'coef_var_25_75': 0.051, 'coef_kstatvar_25_75': 0.011, 'min_25_75': 0.023, 'std_class_25_75': 0.015}</t>
+          <t>{'mean_10_25': 0.143, 'kurt_10_50': 0.094, 'kurt_10_25': 0.065, 'score_at_perc_25_75': 0.061, 'kurt_25_75': 0.06, 'min_10_25': 0.058, 'coef_var_25_75': 0.051, 'var_25_75': 0.05, 'std_class_10_50': 0.05, 'percScore_10_25': 0.049, 'mean_25_75': 0.049, 'skew_25_75': 0.039, 'score_at_perc_10_25': 0.03, 'entropy_10_50': 0.024, 'min_25_75': 0.023, 'max_10_25': 0.019, 'skew_10_25': 0.017, 'percScore_25_75': 0.017, 'coef_var_10_25': 0.016, 'std_class_25_75': 0.015, 'max_10_50': 0.014, 'coef_kstatvar_25_75': 0.011, 'coef_kstatvar_10_25': 0.01, 'entropy_10_25': 0.009, 'skew_10_50': 0.009, 'max_25_75': 0.009, 'var_10_25': 0.008}</t>
         </is>
       </c>
     </row>
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="D8" t="n">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'max_depth': 93, 'max_features': 0.2563174169571622, 'min_samples_leaf': 0.028011557257985126, 'min_samples_split': 0.0013835942446349288}</t>
+          <t>{'max_depth': 72, 'max_features': 0.5296253592861496, 'min_samples_leaf': 0.00728802475198413, 'min_samples_split': 0.030856141026142495}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.075, 'max_10_25': 0.046, 'entropy_10_25': 0.033, 'coef_var_10_25': 0.022, 'min_10_25': 0.044, 'std_class_10_25': 0.042, 'var_10_25': 0.129, 'mean_10_50': 0.013, 'max_10_50': 0.087, 'coef_var_10_50': 0.062, 'min_10_50': 0.118, 'var_10_50': 0.054, 'max_25_75': 0.024, 'kurt_25_75': 0.007, 'entropy_25_75': 0.019, 'min_25_75': 0.149, 'std_class_25_75': 0.075}</t>
+          <t>{'std_class_25_75': 0.153, 'mean_10_25': 0.111, 'std_class_10_50': 0.086, 'score_at_perc_10_25': 0.081, 'min_25_75': 0.067, 'coef_var_10_25': 0.06, 'var_25_75': 0.052, 'max_25_75': 0.046, 'max_10_50': 0.045, 'std_class_10_25': 0.038, 'max_10_25': 0.032, 'min_10_25': 0.03, 'skew_25_75': 0.03, 'skew_10_50': 0.029, 'entropy_10_25': 0.024, 'skew_10_25': 0.02, 'mean_10_50': 0.02, 'min_10_50': 0.02, 'coef_kstatvar_10_25': 0.014, 'kurt_10_50': 0.013, 'entropy_10_50': 0.01, 'coef_kstatvar_10_50': 0.01, 'kurt_25_75': 0.007, 'var_10_25': 0.003}</t>
         </is>
       </c>
     </row>
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
       <c r="D9" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'max_depth': 89, 'max_features': 0.6065538968071573, 'min_samples_leaf': 0.007911684484519711, 'min_samples_split': 0.005387350341064849}</t>
+          <t>{'max_depth': 17, 'max_features': 0.49893049368201436, 'min_samples_leaf': 0.025270751418628647, 'min_samples_split': 0.1371725276467285}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.104, 'max_10_25': 0.025, 'kurt_10_25': 0.038, 'skew_10_25': 0.002, 'percScore_10_25': 0.069, 'entropy_10_25': 0.022, 'score_at_perc_10_25': 0.005, 'coef_var_10_25': 0.043, 'coef_kstatvar_10_25': 0.002, 'min_10_25': 0.048, 'std_class_10_25': 0.085, 'var_10_25': 0.02, 'mean_10_50': 0.011, 'max_10_50': 0.072, 'kurt_10_50': 0.014, 'skew_10_50': 0.005, 'percScore_10_50': 0.038, 'entropy_10_50': 0.031, 'min_10_50': 0.021, 'std_class_10_50': 0.061, 'var_10_50': 0.015, 'mean_25_75': 0.031, 'max_25_75': 0.053, 'kurt_25_75': 0.01, 'skew_25_75': 0.02, 'percScore_25_75': 0.021, 'entropy_25_75': 0.039, 'coef_kstatvar_25_75': 0.019, 'min_25_75': 0.002, 'std_class_25_75': 0.074}</t>
+          <t>{'mean_10_25': 0.187, 'min_25_75': 0.166, 'max_10_50': 0.149, 'max_25_75': 0.118, 'percScore_10_25': 0.069, 'min_10_25': 0.062, 'kurt_10_25': 0.057, 'std_class_10_25': 0.05, 'max_10_25': 0.049, 'min_10_50': 0.048, 'std_class_10_50': 0.046}</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'max_depth': 68, 'max_features': 0.13349363392475247, 'min_samples_leaf': 0.0011994170169746495, 'min_samples_split': 0.017802419221044564}</t>
+          <t>{'max_depth': 60, 'max_features': 0.13600310587090306, 'min_samples_leaf': 0.001619978023659862, 'min_samples_split': 0.016662859824931844}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.077, 'mean_10_25': 0.06, 'max_10_25': 0.029, 'kurt_10_25': 0.066, 'skew_10_25': 0.007, 'percScore_10_25': 0.032, 'score_at_perc_10_25': 0.024, 'min_10_25': 0.034, 'std_class_10_25': 0.087, 'var_10_25': 0.045, 'mean_10_50': 0.057, 'max_10_50': 0.034, 'kurt_10_50': 0.067, 'skew_10_50': 0.019, 'entropy_10_50': 0.02, 'score_at_perc_10_50': 0.019, 'coef_var_10_50': 0.024, 'min_10_50': 0.061, 'var_10_50': 0.013, 'max_25_75': 0.05, 'kurt_25_75': 0.011, 'skew_25_75': 0.013, 'percScore_25_75': 0.033, 'coef_kstatvar_25_75': 0.008, 'min_25_75': 0.082, 'std_class_25_75': 0.03}</t>
+          <t>{'std_class_10_25': 0.087, 'min_25_75': 0.082, 'var_25_75': 0.077, 'kurt_10_50': 0.067, 'kurt_10_25': 0.066, 'min_10_50': 0.061, 'mean_10_25': 0.06, 'mean_10_50': 0.057, 'max_25_75': 0.05, 'var_10_25': 0.045, 'min_10_25': 0.034, 'max_10_50': 0.034, 'percScore_25_75': 0.033, 'percScore_10_25': 0.032, 'std_class_25_75': 0.03, 'max_10_25': 0.029, 'score_at_perc_10_25': 0.024, 'coef_var_10_50': 0.024, 'entropy_10_50': 0.02, 'skew_10_50': 0.019, 'score_at_perc_10_50': 0.019, 'var_10_50': 0.013, 'skew_25_75': 0.013, 'kurt_25_75': 0.011, 'coef_kstatvar_25_75': 0.008, 'skew_10_25': 0.007}</t>
         </is>
       </c>
     </row>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'max_depth': 79, 'max_features': 0.9369113223638063, 'min_samples_leaf': 0.027454218392911543, 'min_samples_split': 0.17372313715550958}</t>
+          <t>{'max_depth': 67, 'max_features': 0.7803477794744372, 'min_samples_leaf': 0.0023660473235248853, 'min_samples_split': 0.001641150389783394}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.099, 'kurt_10_25': 0.078, 'score_at_perc_10_25': 0.074, 'coef_kstatvar_10_25': 0.05, 'var_10_25': 0.089, 'max_10_50': 0.18, 'score_at_perc_10_50': 0.108, 'var_10_50': 0.147, 'mean_25_75': 0.075, 'score_at_perc_25_75': 0.1}</t>
+          <t>{'var_10_50': 0.072, 'score_at_perc_10_50': 0.063, 'skew_10_50': 0.057, 'coef_var_10_50': 0.056, 'kurt_10_50': 0.052, 'percScore_10_50': 0.051, 'coef_kstatvar_10_25': 0.047, 'max_10_50': 0.044, 'kurt_25_75': 0.042, 'mean_10_25': 0.041, 'std_class_10_25': 0.041, 'max_10_25': 0.039, 'std_class_10_50': 0.035, 'mean_25_75': 0.033, 'max_25_75': 0.033, 'score_at_perc_25_75': 0.031, 'score_at_perc_10_25': 0.029, 'var_25_75': 0.026, 'min_10_25': 0.025, 'kurt_10_25': 0.024, 'mean_10_50': 0.024, 'skew_10_25': 0.02, 'percScore_25_75': 0.016, 'std_class_25_75': 0.016, 'var_10_25': 0.015, 'entropy_25_75': 0.013, 'percScore_10_25': 0.011, 'entropy_10_50': 0.011, 'coef_kstatvar_10_50': 0.011, 'coef_var_10_25': 0.008, 'skew_25_75': 0.008, 'coef_kstatvar_25_75': 0.006}</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'max_depth': 23, 'max_features': 0.5336390246446807, 'min_samples_leaf': 0.0015000013294649253, 'min_samples_split': 0.001088233935855519}</t>
+          <t>{'max_depth': 60, 'max_features': 0.5145439682558124, 'min_samples_leaf': 0.0010349683048951565, 'min_samples_split': 0.0015522476936759566}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.109, 'mean_10_25': 0.137, 'max_10_25': 0.053, 'skew_10_25': 0.001, 'percScore_10_25': 0.027, 'entropy_10_25': 0.006, 'score_at_perc_10_25': 0.017, 'coef_var_10_25': 0.075, 'coef_kstatvar_10_25': 0.023, 'min_10_25': 0.029, 'std_class_10_25': 0.014, 'var_10_25': 0.02, 'mean_10_50': 0.005, 'max_10_50': 0.029, 'kurt_10_50': 0.018, 'skew_10_50': 0.066, 'percScore_10_50': 0.022, 'entropy_10_50': 0.013, 'min_10_50': 0.037, 'std_class_10_50': 0.023, 'var_10_50': 0.009, 'mean_25_75': 0.06, 'max_25_75': 0.008, 'kurt_25_75': 0.008, 'skew_25_75': 0.015, 'percScore_25_75': 0.006, 'coef_kstatvar_25_75': 0.012, 'min_25_75': 0.102, 'std_class_25_75': 0.056}</t>
+          <t>{'mean_10_25': 0.137, 'var_25_75': 0.109, 'min_25_75': 0.102, 'coef_var_10_25': 0.075, 'skew_10_50': 0.066, 'mean_25_75': 0.06, 'std_class_25_75': 0.056, 'max_10_25': 0.053, 'min_10_50': 0.037, 'min_10_25': 0.029, 'max_10_50': 0.029, 'percScore_10_25': 0.027, 'coef_kstatvar_10_25': 0.023, 'std_class_10_50': 0.023, 'percScore_10_50': 0.022, 'var_10_25': 0.02, 'kurt_10_50': 0.018, 'score_at_perc_10_25': 0.017, 'skew_25_75': 0.015, 'std_class_10_25': 0.014, 'entropy_10_50': 0.013, 'coef_kstatvar_25_75': 0.012, 'var_10_50': 0.009, 'max_25_75': 0.008, 'kurt_25_75': 0.008, 'entropy_10_25': 0.006, 'percScore_25_75': 0.006, 'mean_10_50': 0.005, 'skew_10_25': 0.001}</t>
         </is>
       </c>
     </row>
@@ -756,19 +756,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'max_depth': 51, 'max_features': 0.6891368756399977, 'min_samples_leaf': 0.0015006710787511032, 'min_samples_split': 0.0013606625128009843}</t>
+          <t>{'max_depth': 54, 'max_features': 0.7971382111244815, 'min_samples_leaf': 0.022149341647354808, 'min_samples_split': 0.06180706395021693}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.004, 'mean_10_25': 0.131, 'max_10_25': 0.021, 'skew_10_25': 0.008, 'percScore_10_25': 0.007, 'score_at_perc_10_25': 0.029, 'coef_var_10_25': 0.108, 'coef_kstatvar_10_25': 0.011, 'min_10_25': 0.031, 'std_class_10_25': 0.023, 'var_10_25': 0.053, 'mean_10_50': 0.021, 'max_10_50': 0.01, 'kurt_10_50': 0.007, 'skew_10_50': 0.015, 'entropy_10_50': 0.013, 'score_at_perc_10_50': 0.059, 'coef_var_10_50': 0.012, 'coef_kstatvar_10_50': 0.031, 'min_10_50': 0.017, 'std_class_10_50': 0.012, 'var_10_50': 0.016, 'mean_25_75': 0.043, 'max_25_75': 0.065, 'kurt_25_75': 0.007, 'skew_25_75': 0.012, 'percScore_25_75': 0.029, 'entropy_25_75': 0.008, 'score_at_perc_25_75': 0.007, 'coef_kstatvar_25_75': 0.032, 'min_25_75': 0.065, 'std_class_25_75': 0.09}</t>
+          <t>{'mean_10_25': 0.197, 'coef_var_10_25': 0.169, 'std_class_25_75': 0.142, 'score_at_perc_10_50': 0.084, 'max_10_25': 0.061, 'var_10_25': 0.059, 'coef_var_25_75': 0.047, 'min_10_25': 0.034, 'min_25_75': 0.032, 'max_10_50': 0.031, 'skew_10_50': 0.027, 'mean_25_75': 0.027, 'coef_kstatvar_10_50': 0.023, 'percScore_10_50': 0.022, 'var_10_50': 0.02, 'max_25_75': 0.018, 'kurt_10_25': 0.003, 'std_class_10_25': 0.001, 'entropy_10_50': 0.001, 'coef_kstatvar_25_75': 0.001}</t>
         </is>
       </c>
     </row>
@@ -782,19 +782,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D14" t="n">
         <v>0.67</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'max_depth': 68, 'max_features': 0.2883404675560206, 'min_samples_leaf': 0.001459731575227611, 'min_samples_split': 0.0013635975029920588}</t>
+          <t>{'max_depth': 13, 'max_features': 0.6521275440475178, 'min_samples_leaf': 0.0011811462637191354, 'min_samples_split': 0.01041004586008313}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.02, 'mean_10_25': 0.029, 'max_10_25': 0.027, 'kurt_10_25': 0.087, 'skew_10_25': 0.028, 'entropy_10_25': 0.038, 'score_at_perc_10_25': 0.003, 'coef_var_10_25': 0.009, 'coef_kstatvar_10_25': 0.005, 'min_10_25': 0.02, 'std_class_10_25': 0.024, 'var_10_25': 0.026, 'mean_10_50': 0.019, 'max_10_50': 0.025, 'kurt_10_50': 0.045, 'skew_10_50': 0.047, 'mad_10_50': 0.011, 'percScore_10_50': 0.041, 'entropy_10_50': 0.012, 'score_at_perc_10_50': 0.073, 'coef_var_10_50': 0.024, 'coef_kstatvar_10_50': 0.007, 'min_10_50': 0.064, 'std_class_10_50': 0.04, 'var_10_50': 0.023, 'mean_25_75': 0.033, 'max_25_75': 0.041, 'kurt_25_75': 0.009, 'percScore_25_75': 0.017, 'entropy_25_75': 0.027, 'score_at_perc_25_75': 0.007, 'coef_var_25_75': 0.005, 'coef_kstatvar_25_75': 0.011, 'min_25_75': 0.072, 'std_class_25_75': 0.03}</t>
+          <t>{'var_10_50': 0.084, 'std_class_10_25': 0.08, 'kurt_10_50': 0.072, 'coef_var_10_50': 0.064, 'mean_25_75': 0.053, 'score_at_perc_10_50': 0.051, 'min_10_25': 0.046, 'max_25_75': 0.045, 'min_10_50': 0.039, 'coef_kstatvar_10_25': 0.037, 'max_10_50': 0.037, 'score_at_perc_10_25': 0.033, 'percScore_10_50': 0.031, 'min_25_75': 0.03, 'var_25_75': 0.027, 'mean_10_25': 0.027, 'entropy_10_50': 0.027, 'var_10_25': 0.024, 'skew_10_50': 0.024, 'kurt_10_25': 0.018, 'score_at_perc_25_75': 0.018, 'std_class_25_75': 0.016, 'percScore_25_75': 0.015, 'entropy_25_75': 0.015, 'mad_10_25': 0.014, 'max_10_25': 0.012, 'mean_10_50': 0.012, 'std_class_10_50': 0.012, 'coef_var_10_25': 0.011, 'skew_25_75': 0.01, 'skew_10_25': 0.007, 'coef_var_25_75': 0.007, 'percScore_10_25': 0.004}</t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'max_depth': 11, 'max_features': 0.5752809600965818, 'min_samples_leaf': 0.00966830879155898, 'min_samples_split': 0.03892793577376695}</t>
+          <t>{'max_depth': 9, 'max_features': 0.7665310694083114, 'min_samples_leaf': 0.010376391056030557, 'min_samples_split': 0.0389618488400264}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.013, 'mean_10_25': 0.129, 'max_10_25': 0.057, 'kurt_10_25': 0.087, 'skew_10_25': 0.016, 'percScore_10_25': 0.009, 'score_at_perc_10_25': 0.04, 'min_10_25': 0.016, 'std_class_10_25': 0.057, 'mean_10_50': 0.049, 'max_10_50': 0.003, 'kurt_10_50': 0.088, 'skew_10_50': 0.006, 'percScore_10_50': 0.009, 'coef_var_10_50': 0.035, 'coef_kstatvar_10_50': 0.033, 'min_10_50': 0.1, 'mean_25_75': 0.06, 'max_25_75': 0.021, 'kurt_25_75': 0.003, 'percScore_25_75': 0.002, 'score_at_perc_25_75': 0.022, 'coef_kstatvar_25_75': 0.004, 'std_class_25_75': 0.142}</t>
+          <t>{'mean_10_25': 0.15, 'var_10_50': 0.117, 'std_class_10_25': 0.082, 'mean_25_75': 0.077, 'max_10_50': 0.069, 'std_class_10_50': 0.064, 'coef_var_25_75': 0.056, 'var_10_25': 0.047, 'max_25_75': 0.042, 'min_10_25': 0.04, 'percScore_10_50': 0.04, 'kurt_10_25': 0.031, 'min_10_50': 0.028, 'std_class_25_75': 0.028, 'coef_var_10_25': 0.023, 'score_at_perc_10_50': 0.021, 'kurt_25_75': 0.021, 'coef_var_10_50': 0.017, 'percScore_10_25': 0.016, 'skew_25_75': 0.01, 'percScore_25_75': 0.01, 'max_10_25': 0.006, 'skew_10_50': 0.003, 'entropy_25_75': 0.003}</t>
         </is>
       </c>
     </row>
@@ -834,19 +834,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="D16" t="n">
         <v>0.43</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'max_depth': 19, 'max_features': 0.6777750266811025, 'min_samples_leaf': 0.001302090599524913, 'min_samples_split': 0.011447285046449287}</t>
+          <t>{'max_depth': 86, 'max_features': 0.8404127716334894, 'min_samples_leaf': 0.001123487994113348, 'min_samples_split': 0.009949875073148238}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.04, 'mean_10_25': 0.013, 'max_10_25': 0.021, 'kurt_10_25': 0.02, 'skew_10_25': 0.014, 'percScore_10_25': 0.007, 'entropy_10_25': 0.071, 'score_at_perc_10_25': 0.061, 'coef_var_10_25': 0.011, 'coef_kstatvar_10_25': 0.008, 'min_10_25': 0.056, 'std_class_10_25': 0.048, 'var_10_25': 0.063, 'mean_10_50': 0.044, 'max_10_50': 0.074, 'kurt_10_50': 0.007, 'skew_10_50': 0.044, 'percScore_10_50': 0.003, 'entropy_10_50': 0.008, 'score_at_perc_10_50': 0.054, 'coef_var_10_50': 0.039, 'coef_kstatvar_10_50': 0.019, 'min_10_50': 0.012, 'std_class_10_50': 0.008, 'var_10_50': 0.095, 'mean_25_75': 0.026, 'max_25_75': 0.036, 'kurt_25_75': 0.026, 'skew_25_75': 0.013, 'percScore_25_75': 0.007, 'score_at_perc_25_75': 0.008, 'min_25_75': 0.013, 'std_class_25_75': 0.028}</t>
+          <t>{'var_10_50': 0.079, 'skew_10_25': 0.064, 'var_10_25': 0.06, 'skew_10_50': 0.058, 'score_at_perc_10_50': 0.057, 'mean_10_25': 0.054, 'min_10_25': 0.053, 'std_class_25_75': 0.053, 'coef_kstatvar_10_25': 0.041, 'std_class_10_50': 0.04, 'entropy_10_25': 0.038, 'max_10_50': 0.036, 'mean_25_75': 0.036, 'score_at_perc_10_25': 0.035, 'std_class_10_25': 0.033, 'percScore_10_25': 0.031, 'min_10_50': 0.029, 'percScore_10_50': 0.028, 'max_25_75': 0.024, 'coef_var_10_25': 0.02, 'skew_25_75': 0.018, 'mean_10_50': 0.017, 'kurt_10_50': 0.017, 'percScore_25_75': 0.017, 'min_25_75': 0.015, 'max_10_25': 0.014, 'kurt_10_25': 0.012, 'coef_kstatvar_10_50': 0.009, 'coef_var_10_50': 0.007, 'entropy_25_75': 0.007}</t>
         </is>
       </c>
     </row>
